--- a/output/TEST/Female comparison vs. rank 1.xlsx
+++ b/output/TEST/Female comparison vs. rank 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isaac\Documents\GitHub\COMPAR-EU_diabetes_model\output\TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1298358-9E7D-46E9-9361-6EB526544023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BC93BF-078E-47D3-B9F5-D7AF7CB0D5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clinical results" sheetId="6" r:id="rId1"/>
@@ -3650,10 +3650,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280D4F76-810F-4946-9581-43363ADD77EF}">
-  <dimension ref="B2:K5"/>
+  <dimension ref="B2:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3800,6 +3800,12 @@
         <f t="shared" si="0"/>
         <v>1.2602394449956478E-4</v>
       </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8973,7 +8979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF908F2B-86AE-4B0C-AFD2-AEBD7D81DF24}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>

--- a/output/TEST/Female comparison vs. rank 1.xlsx
+++ b/output/TEST/Female comparison vs. rank 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isaac\Documents\GitHub\COMPAR-EU_diabetes_model\output\TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BC93BF-078E-47D3-B9F5-D7AF7CB0D5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FEE681-FDE7-48CE-AD64-F892B8331F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
   <si>
     <t>CHF.EVENT</t>
   </si>
@@ -128,15 +128,40 @@
   <si>
     <t>Comparator - Rank 1</t>
   </si>
+  <si>
+    <t>Rank_1_plus</t>
+  </si>
+  <si>
+    <t>assumes an effect of -2 hba1c points, same duration as Rank_1</t>
+  </si>
+  <si>
+    <t>ICER</t>
+  </si>
+  <si>
+    <t>Rank_1 dominates</t>
+  </si>
+  <si>
+    <t>Rank_1_10y</t>
+  </si>
+  <si>
+    <t>assumes same effect as Rank_1 but an effect duration of 10 years</t>
+  </si>
+  <si>
+    <t>Rank_1_10y dominates</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -167,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -176,6 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3538,19 +3564,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8902D6D2-6D5A-4AD8-B851-F38734645035}">
-  <dimension ref="B2:K4"/>
+  <dimension ref="B2:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="59.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>22</v>
       </c>
@@ -3579,7 +3615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -3611,7 +3647,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -3641,6 +3677,205 @@
       </c>
       <c r="K4">
         <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2">
+        <f>C3-C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:K5" si="0">D3-D4</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>24.584</v>
+      </c>
+      <c r="D7">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F7">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G7">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J7">
+        <v>2E-3</v>
+      </c>
+      <c r="K7">
+        <v>0.06</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <f>C7-C4</f>
+        <v>9.9000000000000199E-2</v>
+      </c>
+      <c r="D8">
+        <f>D7-D4</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>E7-E4</f>
+        <v>-4.0000000000000036E-3</v>
+      </c>
+      <c r="F8">
+        <f>F7-F4</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="G8">
+        <f>G7-G4</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>H7-H4</f>
+        <v>-9.9999999999999742E-4</v>
+      </c>
+      <c r="I8">
+        <f>I7-I4</f>
+        <v>-1E-3</v>
+      </c>
+      <c r="J8">
+        <f>J7-J4</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>K7-K4</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>24.495000000000001</v>
+      </c>
+      <c r="D10">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="F10">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H10">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="I10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J10">
+        <v>2E-3</v>
+      </c>
+      <c r="K10">
+        <v>0.06</v>
+      </c>
+      <c r="M10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <f>C10-C4</f>
+        <v>1.0000000000001563E-2</v>
+      </c>
+      <c r="D11">
+        <f>D10-D4</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>E10-E4</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="F11">
+        <f>F10-F4</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="G11">
+        <f>G10-G4</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>H10-H4</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>I10-I4</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>J10-J4</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>K10-K4</f>
+        <v>-1.0000000000000009E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3650,27 +3885,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280D4F76-810F-4946-9581-43363ADD77EF}">
-  <dimension ref="B2:K9"/>
+  <dimension ref="B2:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:N10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>12</v>
       </c>
@@ -3699,7 +3935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -3725,13 +3961,14 @@
         <v>251594.35236193999</v>
       </c>
       <c r="J3" s="3">
-        <v>423243.07503560802</v>
+        <f>SUM(C3:I3)</f>
+        <v>423243.07503560872</v>
       </c>
       <c r="K3" s="1">
         <v>18.397895038408301</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -3757,13 +3994,17 @@
         <v>251594.35236193999</v>
       </c>
       <c r="J4" s="3">
-        <v>423383.322886471</v>
+        <f>SUM(C4:I4)</f>
+        <v>423383.32288647082</v>
       </c>
       <c r="K4" s="1">
         <v>18.397769014463801</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
       <c r="C5" s="3">
         <f>C3-C4</f>
         <v>-140.46604786407988</v>
@@ -3794,18 +4035,215 @@
       </c>
       <c r="J5" s="3">
         <f t="shared" si="0"/>
-        <v>-140.24785086297197</v>
+        <v>-140.24785086209886</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="0"/>
         <v>1.2602394449956478E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K9" s="3"/>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="3">
+        <f>J5/K5</f>
+        <v>-1112866.6970313978</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9304.2174396392093</v>
+      </c>
+      <c r="D8" s="3">
+        <v>63795.340827919201</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>41598.412278894801</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3991.6994400892399</v>
+      </c>
+      <c r="H8" s="3">
+        <v>53268.017864347203</v>
+      </c>
+      <c r="I8" s="3">
+        <v>252283.44497043299</v>
+      </c>
+      <c r="J8" s="3">
+        <f>SUM(C8:I8)</f>
+        <v>424241.13282132265</v>
+      </c>
+      <c r="K8">
+        <v>18.4684617964643</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3">
+        <f>C8-C4</f>
+        <v>-455.00075916003152</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" ref="D9:K9" si="1">D8-D4</f>
+        <v>239.64665338690247</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>196.23093810440332</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>2.8987949846900847</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>184.94169904290175</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="1"/>
+        <v>689.09260849299608</v>
+      </c>
+      <c r="J9" s="3">
+        <f>SUM(C9:I9)</f>
+        <v>857.80993485186218</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="1"/>
+        <v>7.0692782000499221E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="3">
+        <f>J9/K9</f>
+        <v>12134.335508903929</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9465.0666360833202</v>
+      </c>
+      <c r="D12" s="3">
+        <v>63589.610407165397</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>41449.350579929902</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3987.1391859566202</v>
+      </c>
+      <c r="H12" s="3">
+        <v>53102.6161160634</v>
+      </c>
+      <c r="I12" s="3">
+        <v>251656.20754259001</v>
+      </c>
+      <c r="J12" s="3">
+        <f>SUM(C12:I12)</f>
+        <v>423249.99046778865</v>
+      </c>
+      <c r="K12">
+        <v>18.405128970628201</v>
+      </c>
+      <c r="M12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3">
+        <f>C12-C4</f>
+        <v>-294.15156271592059</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" ref="D13:K13" si="2">D12-D4</f>
+        <v>33.916232633098844</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="2"/>
+        <v>47.169239139504498</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.6614591479296905</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="2"/>
+        <v>19.539950759099156</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="2"/>
+        <v>61.855180650018156</v>
+      </c>
+      <c r="J13" s="3">
+        <f>SUM(C13:I13)</f>
+        <v>-133.33241868212963</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="2"/>
+        <v>7.3599561644002165E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="3">
+        <f>J13/K13</f>
+        <v>-18115.925652798403</v>
+      </c>
+      <c r="M14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
